--- a/rapportglobalmois.xlsx
+++ b/rapportglobalmois.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="My product sheet" r:id="rId3" sheetId="1"/>
+    <sheet name="Rapport Global" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Prestataire</t>
   </si>
@@ -25,13 +25,19 @@
   <si>
     <t>Total Commissions</t>
   </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -44,38 +50,13 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,50 +71,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.34375" customWidth="true"/>
+    <col min="1" max="1" width="31.25" customWidth="true"/>
     <col min="2" max="2" width="31.25" customWidth="true"/>
     <col min="3" max="3" width="31.25" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
+    <col min="4" max="4" width="31.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>800.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2000.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>

--- a/rapportglobalmois.xlsx
+++ b/rapportglobalmois.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>mois</t>
+  </si>
   <si>
     <t>Prestataire</t>
   </si>
@@ -26,10 +29,19 @@
     <t>Total Commissions</t>
   </si>
   <si>
+    <t>2026-02</t>
+  </si>
+  <si>
+    <t>AICHA</t>
+  </si>
+  <si>
     <t>SARA</t>
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>ZINEB</t>
   </si>
 </sst>
 </file>
@@ -80,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,6 +102,7 @@
     <col min="2" max="2" width="31.25" customWidth="true"/>
     <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
+    <col min="5" max="5" width="31.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -105,33 +118,76 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="B2" t="n" s="0">
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>800.0</v>
+      <c r="D2" t="n" s="0">
+        <v>900.0</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>16.0</v>
+      <c r="E2" t="n" s="0">
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="D3" t="n" s="0">
+        <v>800.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
         <v>2000.0</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="E4" t="n" s="0">
         <v>40.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/rapportglobalmois.xlsx
+++ b/rapportglobalmois.xlsx
@@ -32,7 +32,7 @@
     <t>2026-02</t>
   </si>
   <si>
-    <t>souhayb</t>
+    <t>ayoub</t>
   </si>
 </sst>
 </file>
@@ -121,13 +121,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1030.0</v>
+        <v>250.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>20.6</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
